--- a/contents/battle/battle_9/battle_9.xlsx
+++ b/contents/battle/battle_9/battle_9.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\imanol-KS53\Documents\Imanol\Github_projects\InteractiveBook\contents\battle\battle_9\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C8B97DB-5203-485C-AC68-D8A62B19ED3C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E77B70E6-DBAB-430A-A685-5E09FB75694F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="9885" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="9885" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="nodes" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="66">
   <si>
     <t>x</t>
   </si>
@@ -626,7 +626,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K186"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
@@ -4805,10 +4805,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B76CDC32-9C71-4924-88B2-6E23C700FAA0}">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4954,55 +4954,89 @@
       <c r="A7" t="s">
         <v>46</v>
       </c>
-      <c r="B7" s="10" t="s">
-        <v>60</v>
+      <c r="B7" s="15" t="s">
+        <v>65</v>
       </c>
       <c r="C7">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
-        <v>60</v>
+      <c r="A8" s="15" t="s">
+        <v>65</v>
       </c>
       <c r="B8" t="s">
         <v>46</v>
       </c>
       <c r="C8">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>46</v>
       </c>
-      <c r="B9" s="15" t="s">
-        <v>65</v>
+      <c r="B9" s="10" t="s">
+        <v>60</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="15" t="s">
-        <v>65</v>
+      <c r="A10" s="10" t="s">
+        <v>60</v>
       </c>
       <c r="B10" t="s">
         <v>46</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F10">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="G12">
         <v>0</v>
       </c>
     </row>
@@ -5016,8 +5050,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBE17DB7-E6BE-4178-A86C-3E370AE7D84E}">
   <dimension ref="A1:K62"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="K57" sqref="K57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6286,7 +6320,7 @@
         <v>1</v>
       </c>
       <c r="K36" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
@@ -6496,7 +6530,7 @@
         <v>1</v>
       </c>
       <c r="K42" s="8">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
@@ -6776,7 +6810,7 @@
         <v>1</v>
       </c>
       <c r="K50" s="8">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
@@ -7056,7 +7090,7 @@
         <v>1</v>
       </c>
       <c r="K58" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
